--- a/input/PL/policy parameters.xlsx
+++ b/input/PL/policy parameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10905"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patryk\git\SimPaths_HU\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Sonnewald/Documents/GitHub/SimPathsEU/input/PL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C27D450-8EE4-43B0-9BE0-0058483CEC0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB22D404-E550-154F-B25C-7FDB5E4727BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{E29F3EB7-07F0-4B2F-ABCD-03E4363B7DD7}"/>
+    <workbookView xWindow="18980" yWindow="500" windowWidth="19420" windowHeight="19640" firstSheet="8" activeTab="11" xr2:uid="{E29F3EB7-07F0-4B2F-ABCD-03E4363B7DD7}"/>
   </bookViews>
   <sheets>
     <sheet name="disability" sheetId="10" r:id="rId1"/>
@@ -20,9 +20,13 @@
     <sheet name="students" sheetId="9" r:id="rId5"/>
     <sheet name="partnership" sheetId="4" r:id="rId6"/>
     <sheet name="employment_smales" sheetId="5" r:id="rId7"/>
-    <sheet name="employment_sfemales" sheetId="6" r:id="rId8"/>
-    <sheet name="employment_couples" sheetId="7" r:id="rId9"/>
-    <sheet name="raw data" sheetId="3" r:id="rId10"/>
+    <sheet name="employment_acmales" sheetId="11" r:id="rId8"/>
+    <sheet name="employment_sfemales" sheetId="6" r:id="rId9"/>
+    <sheet name="employment_acfemales" sheetId="12" r:id="rId10"/>
+    <sheet name="employment_malewdep" sheetId="13" r:id="rId11"/>
+    <sheet name="employment_femalewdep" sheetId="14" r:id="rId12"/>
+    <sheet name="employment_couples" sheetId="7" r:id="rId13"/>
+    <sheet name="raw data" sheetId="3" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="43">
   <si>
     <t>CAPITAL LIMITS</t>
   </si>
@@ -544,11 +548,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5BE8D09-68C3-47E4-AB1B-09AAE2124BA2}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -556,7 +560,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2010</v>
       </c>
@@ -564,7 +568,7 @@
         <v>4.0500000000000001E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2011</v>
       </c>
@@ -572,7 +576,7 @@
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2012</v>
       </c>
@@ -580,7 +584,7 @@
         <v>3.7199999999999997E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2013</v>
       </c>
@@ -588,7 +592,7 @@
         <v>3.6900000000000002E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2014</v>
       </c>
@@ -596,7 +600,7 @@
         <v>3.7499999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2015</v>
       </c>
@@ -604,7 +608,7 @@
         <v>3.6400000000000002E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2016</v>
       </c>
@@ -612,7 +616,7 @@
         <v>3.3399999999999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2017</v>
       </c>
@@ -620,7 +624,7 @@
         <v>2.9100000000000001E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2018</v>
       </c>
@@ -628,7 +632,7 @@
         <v>2.7199999999999998E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2019</v>
       </c>
@@ -636,7 +640,7 @@
         <v>2.6800000000000001E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2020</v>
       </c>
@@ -644,7 +648,7 @@
         <v>2.92E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2021</v>
       </c>
@@ -652,7 +656,7 @@
         <v>2.64E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2022</v>
       </c>
@@ -660,7 +664,7 @@
         <v>2.5100000000000001E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2023</v>
       </c>
@@ -674,6 +678,640 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7918D94-270C-AC43-A860-B12EAC793F80}">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2010</v>
+      </c>
+      <c r="B2">
+        <v>0.29414899999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2011</v>
+      </c>
+      <c r="B3">
+        <v>0.29414899999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2012</v>
+      </c>
+      <c r="B4">
+        <v>0.27185799999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2013</v>
+      </c>
+      <c r="B5">
+        <v>0.24763199999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2014</v>
+      </c>
+      <c r="B6">
+        <v>0.22253700000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2015</v>
+      </c>
+      <c r="B7">
+        <v>0.22546099999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2016</v>
+      </c>
+      <c r="B8">
+        <v>0.24279899999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2017</v>
+      </c>
+      <c r="B9">
+        <v>0.24468000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2018</v>
+      </c>
+      <c r="B10">
+        <v>0.27390300000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2019</v>
+      </c>
+      <c r="B11">
+        <v>0.313029</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2020</v>
+      </c>
+      <c r="B12">
+        <v>0.28016600000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2021</v>
+      </c>
+      <c r="B13">
+        <v>0.27554800000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2022</v>
+      </c>
+      <c r="B14">
+        <v>0.33879599999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2023</v>
+      </c>
+      <c r="B15">
+        <v>0.32312099999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{595D7DF5-6427-044C-BD14-A935E176F885}">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2010</v>
+      </c>
+      <c r="B2">
+        <v>0.84780199999999994</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2011</v>
+      </c>
+      <c r="B3">
+        <v>0.84780199999999994</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2012</v>
+      </c>
+      <c r="B4">
+        <v>0.80887100000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2013</v>
+      </c>
+      <c r="B5">
+        <v>0.77573499999999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2014</v>
+      </c>
+      <c r="B6">
+        <v>0.75251699999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2015</v>
+      </c>
+      <c r="B7">
+        <v>0.75262899999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2016</v>
+      </c>
+      <c r="B8">
+        <v>0.75889499999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2017</v>
+      </c>
+      <c r="B9">
+        <v>0.79421600000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2018</v>
+      </c>
+      <c r="B10">
+        <v>0.78493500000000005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2019</v>
+      </c>
+      <c r="B11">
+        <v>0.83127399999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2020</v>
+      </c>
+      <c r="B12">
+        <v>0.88571599999999995</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2021</v>
+      </c>
+      <c r="B13">
+        <v>0.84921800000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2022</v>
+      </c>
+      <c r="B14">
+        <v>0.89088400000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2023</v>
+      </c>
+      <c r="B15">
+        <v>0.78691500000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38D88986-39F9-274F-B614-DAD5D3A57DD7}">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2010</v>
+      </c>
+      <c r="B2">
+        <v>0.26522800000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2011</v>
+      </c>
+      <c r="B3">
+        <v>0.26522800000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2012</v>
+      </c>
+      <c r="B4">
+        <v>0.27356799999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2013</v>
+      </c>
+      <c r="B5">
+        <v>0.273926</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2014</v>
+      </c>
+      <c r="B6">
+        <v>0.23652200000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2015</v>
+      </c>
+      <c r="B7">
+        <v>0.25017800000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2016</v>
+      </c>
+      <c r="B8">
+        <v>0.24973799999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2017</v>
+      </c>
+      <c r="B9">
+        <v>0.26674399999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2018</v>
+      </c>
+      <c r="B10">
+        <v>0.27819100000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2019</v>
+      </c>
+      <c r="B11">
+        <v>0.29665599999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2020</v>
+      </c>
+      <c r="B12">
+        <v>0.30199500000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2021</v>
+      </c>
+      <c r="B13">
+        <v>0.32094800000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2022</v>
+      </c>
+      <c r="B14">
+        <v>0.34444900000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2023</v>
+      </c>
+      <c r="B15">
+        <v>0.37901499999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D244153-91CD-4DE3-A3BE-886BB7506357}">
+  <dimension ref="A1:B27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2010</v>
+      </c>
+      <c r="B2">
+        <v>0.69540000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2011</v>
+      </c>
+      <c r="B3">
+        <v>0.69540000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2012</v>
+      </c>
+      <c r="B4">
+        <v>0.69930000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2013</v>
+      </c>
+      <c r="B5">
+        <v>0.69679999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2014</v>
+      </c>
+      <c r="B6">
+        <v>0.69920000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2015</v>
+      </c>
+      <c r="B7">
+        <v>0.69220000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2016</v>
+      </c>
+      <c r="B8">
+        <v>0.6905</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2017</v>
+      </c>
+      <c r="B9">
+        <v>0.68110000000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2018</v>
+      </c>
+      <c r="B10">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2019</v>
+      </c>
+      <c r="B11">
+        <v>0.66810000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2020</v>
+      </c>
+      <c r="B12">
+        <v>0.64080000000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2021</v>
+      </c>
+      <c r="B13">
+        <v>0.64239999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2022</v>
+      </c>
+      <c r="B14">
+        <v>0.65720000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2023</v>
+      </c>
+      <c r="B15">
+        <v>0.6482</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2024</v>
+      </c>
+      <c r="B16">
+        <v>0.6482</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2025</v>
+      </c>
+      <c r="B17">
+        <v>0.6482</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2026</v>
+      </c>
+      <c r="B18">
+        <v>0.6482</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2027</v>
+      </c>
+      <c r="B19">
+        <v>0.6482</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>2028</v>
+      </c>
+      <c r="B20">
+        <v>0.6482</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2029</v>
+      </c>
+      <c r="B21">
+        <v>0.6482</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>2030</v>
+      </c>
+      <c r="B22">
+        <v>0.6482</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>2031</v>
+      </c>
+      <c r="B23">
+        <v>0.6482</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2032</v>
+      </c>
+      <c r="B24">
+        <v>0.6482</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>2033</v>
+      </c>
+      <c r="B25">
+        <v>0.6482</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>2034</v>
+      </c>
+      <c r="B26">
+        <v>0.6482</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>2035</v>
+      </c>
+      <c r="B27">
+        <v>0.6482</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA85A294-76F0-4023-B97D-1E7832E0E774}">
   <dimension ref="A1:Y33"/>
   <sheetViews>
@@ -681,9 +1319,9 @@
       <selection activeCell="Y4" sqref="Y4:Y33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>34</v>
       </c>
@@ -694,7 +1332,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -710,7 +1348,7 @@
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -766,7 +1404,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2015</v>
       </c>
@@ -844,7 +1482,7 @@
         <v>0.6613654059472992</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2016</v>
       </c>
@@ -923,7 +1561,7 @@
         <v>0.65666662435166534</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2017</v>
       </c>
@@ -1002,7 +1640,7 @@
         <v>0.65162882226991414</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2018</v>
       </c>
@@ -1081,7 +1719,7 @@
         <v>0.64942413470967808</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2019</v>
       </c>
@@ -1160,7 +1798,7 @@
         <v>0.64547705146902756</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2020</v>
       </c>
@@ -1239,7 +1877,7 @@
         <v>0.64460168570888343</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2021</v>
       </c>
@@ -1318,7 +1956,7 @@
         <v>0.64477324955863657</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2022</v>
       </c>
@@ -1397,7 +2035,7 @@
         <v>0.64570195231543648</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2023</v>
       </c>
@@ -1476,7 +2114,7 @@
         <v>0.64737782355652385</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2024</v>
       </c>
@@ -1537,7 +2175,7 @@
         <v>0.64448143654604106</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2025</v>
       </c>
@@ -1598,7 +2236,7 @@
         <v>0.64389807700679014</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2026</v>
       </c>
@@ -1659,7 +2297,7 @@
         <v>0.63601678163112885</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2027</v>
       </c>
@@ -1720,7 +2358,7 @@
         <v>0.63885715724636716</v>
       </c>
     </row>
-    <row r="17" spans="23:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="23:25" x14ac:dyDescent="0.2">
       <c r="W17">
         <f t="shared" si="11"/>
         <v>2007</v>
@@ -1733,7 +2371,7 @@
         <v>0.63970331929393809</v>
       </c>
     </row>
-    <row r="18" spans="23:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="23:25" x14ac:dyDescent="0.2">
       <c r="W18">
         <f t="shared" si="11"/>
         <v>2008</v>
@@ -1746,7 +2384,7 @@
         <v>0.63745385907812036</v>
       </c>
     </row>
-    <row r="19" spans="23:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="23:25" x14ac:dyDescent="0.2">
       <c r="W19">
         <f t="shared" si="11"/>
         <v>2009</v>
@@ -1759,7 +2397,7 @@
         <v>0.64638142900294271</v>
       </c>
     </row>
-    <row r="20" spans="23:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="23:25" x14ac:dyDescent="0.2">
       <c r="W20">
         <f t="shared" si="11"/>
         <v>2010</v>
@@ -1772,7 +2410,7 @@
         <v>0.64291910814000863</v>
       </c>
     </row>
-    <row r="21" spans="23:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="23:25" x14ac:dyDescent="0.2">
       <c r="W21">
         <f t="shared" si="11"/>
         <v>2011</v>
@@ -1785,7 +2423,7 @@
         <v>0.64183543445918845</v>
       </c>
     </row>
-    <row r="22" spans="23:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="23:25" x14ac:dyDescent="0.2">
       <c r="W22">
         <f t="shared" si="11"/>
         <v>2012</v>
@@ -1798,7 +2436,7 @@
         <v>0.64457311813040019</v>
       </c>
     </row>
-    <row r="23" spans="23:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="23:25" x14ac:dyDescent="0.2">
       <c r="W23">
         <f t="shared" si="11"/>
         <v>2013</v>
@@ -1811,7 +2449,7 @@
         <v>0.64501821298769013</v>
       </c>
     </row>
-    <row r="24" spans="23:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="23:25" x14ac:dyDescent="0.2">
       <c r="W24">
         <f t="shared" si="11"/>
         <v>2014</v>
@@ -1824,7 +2462,7 @@
         <v>0.64303300577959377</v>
       </c>
     </row>
-    <row r="25" spans="23:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="23:25" x14ac:dyDescent="0.2">
       <c r="W25">
         <f t="shared" si="11"/>
         <v>2015</v>
@@ -1837,7 +2475,7 @@
         <v>0.64350137796521267</v>
       </c>
     </row>
-    <row r="26" spans="23:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="23:25" x14ac:dyDescent="0.2">
       <c r="W26">
         <f t="shared" si="11"/>
         <v>2016</v>
@@ -1850,7 +2488,7 @@
         <v>0.64443090532156433</v>
       </c>
     </row>
-    <row r="27" spans="23:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="23:25" x14ac:dyDescent="0.2">
       <c r="W27">
         <f t="shared" si="11"/>
         <v>2017</v>
@@ -1863,7 +2501,7 @@
         <v>0.64369538754708922</v>
       </c>
     </row>
-    <row r="28" spans="23:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="23:25" x14ac:dyDescent="0.2">
       <c r="W28">
         <f t="shared" si="11"/>
         <v>2018</v>
@@ -1876,7 +2514,7 @@
         <v>0.64389678969687036</v>
       </c>
     </row>
-    <row r="29" spans="23:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="23:25" x14ac:dyDescent="0.2">
       <c r="W29">
         <f t="shared" si="11"/>
         <v>2019</v>
@@ -1889,7 +2527,7 @@
         <v>0.63975244582712099</v>
       </c>
     </row>
-    <row r="30" spans="23:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="23:25" x14ac:dyDescent="0.2">
       <c r="W30">
         <f t="shared" si="11"/>
         <v>2020</v>
@@ -1902,7 +2540,7 @@
         <v>0.64948824720523413</v>
       </c>
     </row>
-    <row r="31" spans="23:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="23:25" x14ac:dyDescent="0.2">
       <c r="W31">
         <f t="shared" si="11"/>
         <v>2021</v>
@@ -1915,7 +2553,7 @@
         <v>0.64443733677754689</v>
       </c>
     </row>
-    <row r="32" spans="23:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="23:25" x14ac:dyDescent="0.2">
       <c r="W32">
         <v>2022</v>
       </c>
@@ -1924,7 +2562,7 @@
         <v>0.64425404141077236</v>
       </c>
     </row>
-    <row r="33" spans="23:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="23:25" x14ac:dyDescent="0.2">
       <c r="W33">
         <v>2023</v>
       </c>
@@ -1946,13 +2584,13 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -1960,7 +2598,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1968,7 +2606,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1976,7 +2614,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1984,7 +2622,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1995,17 +2633,17 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>37</v>
       </c>
@@ -2024,9 +2662,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -2055,7 +2693,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2015</v>
       </c>
@@ -2084,7 +2722,7 @@
         <v>23250</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2016</v>
       </c>
@@ -2113,7 +2751,7 @@
         <v>23088.381330685203</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2017</v>
       </c>
@@ -2143,7 +2781,7 @@
       </c>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2018</v>
       </c>
@@ -2173,7 +2811,7 @@
       </c>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2019</v>
       </c>
@@ -2203,7 +2841,7 @@
       </c>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2020</v>
       </c>
@@ -2233,7 +2871,7 @@
       </c>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2021</v>
       </c>
@@ -2263,7 +2901,7 @@
       </c>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2022</v>
       </c>
@@ -2293,7 +2931,7 @@
       </c>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2023</v>
       </c>
@@ -2323,7 +2961,7 @@
       </c>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2024</v>
       </c>
@@ -2353,7 +2991,7 @@
       </c>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2025</v>
       </c>
@@ -2383,7 +3021,7 @@
       </c>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2026</v>
       </c>
@@ -2413,7 +3051,7 @@
       </c>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2027</v>
       </c>
@@ -2443,10 +3081,10 @@
       </c>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="K16" s="1"/>
     </row>
   </sheetData>
@@ -2460,9 +3098,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -2470,7 +3108,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2010</v>
       </c>
@@ -2478,7 +3116,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2011</v>
       </c>
@@ -2486,7 +3124,7 @@
         <v>0.20200000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2012</v>
       </c>
@@ -2494,7 +3132,7 @@
         <v>0.20300000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2013</v>
       </c>
@@ -2502,7 +3140,7 @@
         <v>0.20599999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2014</v>
       </c>
@@ -2510,7 +3148,7 @@
         <v>0.20699999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2015</v>
       </c>
@@ -2518,7 +3156,7 @@
         <v>0.215</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2016</v>
       </c>
@@ -2526,7 +3164,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2017</v>
       </c>
@@ -2534,7 +3172,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2018</v>
       </c>
@@ -2542,7 +3180,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2019</v>
       </c>
@@ -2550,7 +3188,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2020</v>
       </c>
@@ -2558,7 +3196,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2021</v>
       </c>
@@ -2566,7 +3204,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2022</v>
       </c>
@@ -2574,7 +3212,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2023</v>
       </c>
@@ -2595,9 +3233,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -2605,7 +3243,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2010</v>
       </c>
@@ -2613,7 +3251,7 @@
         <v>0.23899999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2011</v>
       </c>
@@ -2621,7 +3259,7 @@
         <v>0.23899999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2012</v>
       </c>
@@ -2629,7 +3267,7 @@
         <v>0.23400000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2013</v>
       </c>
@@ -2637,7 +3275,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2014</v>
       </c>
@@ -2645,7 +3283,7 @@
         <v>0.22600000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2015</v>
       </c>
@@ -2653,7 +3291,7 @@
         <v>0.219</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2016</v>
       </c>
@@ -2661,7 +3299,7 @@
         <v>0.218</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2017</v>
       </c>
@@ -2669,7 +3307,7 @@
         <v>0.21299999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2018</v>
       </c>
@@ -2677,7 +3315,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2019</v>
       </c>
@@ -2685,7 +3323,7 @@
         <v>0.20499999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2020</v>
       </c>
@@ -2693,7 +3331,7 @@
         <v>0.20399999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2021</v>
       </c>
@@ -2701,7 +3339,7 @@
         <v>0.19700000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2022</v>
       </c>
@@ -2709,7 +3347,7 @@
         <v>0.19500000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2023</v>
       </c>
@@ -2717,7 +3355,7 @@
         <v>0.188</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2024</v>
       </c>
@@ -2725,7 +3363,7 @@
         <v>0.188</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2025</v>
       </c>
@@ -2733,7 +3371,7 @@
         <v>0.188</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2026</v>
       </c>
@@ -2741,7 +3379,7 @@
         <v>0.188</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2027</v>
       </c>
@@ -2749,7 +3387,7 @@
         <v>0.188</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2028</v>
       </c>
@@ -2757,7 +3395,7 @@
         <v>0.188</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2029</v>
       </c>
@@ -2765,7 +3403,7 @@
         <v>0.188</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2030</v>
       </c>
@@ -2773,7 +3411,7 @@
         <v>0.188</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2031</v>
       </c>
@@ -2781,7 +3419,7 @@
         <v>0.188</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2032</v>
       </c>
@@ -2789,7 +3427,7 @@
         <v>0.188</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2033</v>
       </c>
@@ -2797,7 +3435,7 @@
         <v>0.188</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2034</v>
       </c>
@@ -2805,7 +3443,7 @@
         <v>0.188</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2035</v>
       </c>
@@ -2824,9 +3462,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -2834,7 +3472,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2010</v>
       </c>
@@ -2842,7 +3480,7 @@
         <v>0.62239999999999995</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2011</v>
       </c>
@@ -2850,7 +3488,7 @@
         <v>0.62239999999999995</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2012</v>
       </c>
@@ -2858,7 +3496,7 @@
         <v>0.62150000000000005</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2013</v>
       </c>
@@ -2866,7 +3504,7 @@
         <v>0.62319999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2014</v>
       </c>
@@ -2874,7 +3512,7 @@
         <v>0.62560000000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2015</v>
       </c>
@@ -2882,7 +3520,7 @@
         <v>0.62690000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2016</v>
       </c>
@@ -2890,7 +3528,7 @@
         <v>0.63339999999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2017</v>
       </c>
@@ -2898,7 +3536,7 @@
         <v>0.63200000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2018</v>
       </c>
@@ -2906,7 +3544,7 @@
         <v>0.63529999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2019</v>
       </c>
@@ -2914,7 +3552,7 @@
         <v>0.63819999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2020</v>
       </c>
@@ -2922,7 +3560,7 @@
         <v>0.64080000000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2021</v>
       </c>
@@ -2930,7 +3568,7 @@
         <v>0.63190000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2022</v>
       </c>
@@ -2938,7 +3576,7 @@
         <v>0.63139999999999996</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2023</v>
       </c>
@@ -2946,7 +3584,7 @@
         <v>0.62839999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2024</v>
       </c>
@@ -2954,7 +3592,7 @@
         <v>0.62839999999999996</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2025</v>
       </c>
@@ -2962,7 +3600,7 @@
         <v>0.62839999999999996</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2026</v>
       </c>
@@ -2970,7 +3608,7 @@
         <v>0.62839999999999996</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2027</v>
       </c>
@@ -2978,7 +3616,7 @@
         <v>0.62839999999999996</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2028</v>
       </c>
@@ -2986,7 +3624,7 @@
         <v>0.62839999999999996</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2029</v>
       </c>
@@ -2994,7 +3632,7 @@
         <v>0.62839999999999996</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2030</v>
       </c>
@@ -3002,7 +3640,7 @@
         <v>0.62839999999999996</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2031</v>
       </c>
@@ -3010,7 +3648,7 @@
         <v>0.62839999999999996</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2032</v>
       </c>
@@ -3018,7 +3656,7 @@
         <v>0.62839999999999996</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2033</v>
       </c>
@@ -3026,7 +3664,7 @@
         <v>0.62839999999999996</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2034</v>
       </c>
@@ -3034,7 +3672,7 @@
         <v>0.62839999999999996</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2035</v>
       </c>
@@ -3054,9 +3692,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -3064,7 +3702,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2010</v>
       </c>
@@ -3072,7 +3710,7 @@
         <v>0.46429999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2011</v>
       </c>
@@ -3080,7 +3718,7 @@
         <v>0.46429999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2012</v>
       </c>
@@ -3088,7 +3726,7 @@
         <v>0.4698</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2013</v>
       </c>
@@ -3096,7 +3734,7 @@
         <v>0.4637</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2014</v>
       </c>
@@ -3104,7 +3742,7 @@
         <v>0.46400000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2015</v>
       </c>
@@ -3112,7 +3750,7 @@
         <v>0.46929999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2016</v>
       </c>
@@ -3120,7 +3758,7 @@
         <v>0.48299999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2017</v>
       </c>
@@ -3128,7 +3766,7 @@
         <v>0.49919999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2018</v>
       </c>
@@ -3136,7 +3774,7 @@
         <v>0.49619999999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2019</v>
       </c>
@@ -3144,7 +3782,7 @@
         <v>0.49309999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2020</v>
       </c>
@@ -3152,7 +3790,7 @@
         <v>0.49930000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2021</v>
       </c>
@@ -3160,7 +3798,7 @@
         <v>0.51619999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2022</v>
       </c>
@@ -3168,7 +3806,7 @@
         <v>0.52280000000000004</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2023</v>
       </c>
@@ -3176,7 +3814,7 @@
         <v>0.50560000000000005</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2024</v>
       </c>
@@ -3184,7 +3822,7 @@
         <v>0.50560000000000005</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2025</v>
       </c>
@@ -3192,7 +3830,7 @@
         <v>0.50560000000000005</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2026</v>
       </c>
@@ -3200,7 +3838,7 @@
         <v>0.50560000000000005</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2027</v>
       </c>
@@ -3208,7 +3846,7 @@
         <v>0.50560000000000005</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2028</v>
       </c>
@@ -3216,7 +3854,7 @@
         <v>0.50560000000000005</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2029</v>
       </c>
@@ -3224,7 +3862,7 @@
         <v>0.50560000000000005</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2030</v>
       </c>
@@ -3232,7 +3870,7 @@
         <v>0.50560000000000005</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2031</v>
       </c>
@@ -3240,7 +3878,7 @@
         <v>0.50560000000000005</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2032</v>
       </c>
@@ -3248,7 +3886,7 @@
         <v>0.50560000000000005</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2033</v>
       </c>
@@ -3256,7 +3894,7 @@
         <v>0.50560000000000005</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2034</v>
       </c>
@@ -3264,7 +3902,7 @@
         <v>0.50560000000000005</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2035</v>
       </c>
@@ -3278,14 +3916,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2ADCB18-5B9A-4019-89E5-BA38EA9BE54A}">
-  <dimension ref="A1:B27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B959D56C-A5FB-2B4E-B586-2C478526262A}">
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -3293,212 +3933,116 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2010</v>
       </c>
       <c r="B2">
-        <v>0.2495</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.349132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2011</v>
       </c>
       <c r="B3">
-        <v>0.2495</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.349132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2012</v>
       </c>
       <c r="B4">
-        <v>0.25169999999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.349132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2013</v>
       </c>
       <c r="B5">
-        <v>0.24229999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.30974299999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2014</v>
       </c>
       <c r="B6">
-        <v>0.25609999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.25676199999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2015</v>
       </c>
       <c r="B7">
-        <v>0.25850000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.26411699999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2016</v>
       </c>
       <c r="B8">
-        <v>0.26219999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.27359499999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2017</v>
       </c>
       <c r="B9">
-        <v>0.26200000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.27618300000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2018</v>
       </c>
       <c r="B10">
-        <v>0.25009999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.30072199999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2019</v>
       </c>
       <c r="B11">
-        <v>0.25119999999999998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.32430500000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2020</v>
       </c>
       <c r="B12">
-        <v>0.24579999999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.351267</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2021</v>
       </c>
       <c r="B13">
-        <v>0.25340000000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.26828200000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2022</v>
       </c>
       <c r="B14">
-        <v>0.27029999999999998</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.31243900000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2023</v>
       </c>
       <c r="B15">
-        <v>0.26369999999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>2024</v>
-      </c>
-      <c r="B16">
-        <v>0.26369999999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>2025</v>
-      </c>
-      <c r="B17">
-        <v>0.26369999999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>2026</v>
-      </c>
-      <c r="B18">
-        <v>0.26369999999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>2027</v>
-      </c>
-      <c r="B19">
-        <v>0.26369999999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>2028</v>
-      </c>
-      <c r="B20">
-        <v>0.26369999999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>2029</v>
-      </c>
-      <c r="B21">
-        <v>0.26369999999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>2030</v>
-      </c>
-      <c r="B22">
-        <v>0.26369999999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>2031</v>
-      </c>
-      <c r="B23">
-        <v>0.26369999999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>2032</v>
-      </c>
-      <c r="B24">
-        <v>0.26369999999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>2033</v>
-      </c>
-      <c r="B25">
-        <v>0.26369999999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>2034</v>
-      </c>
-      <c r="B26">
-        <v>0.26369999999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>2035</v>
-      </c>
-      <c r="B27">
-        <v>0.26369999999999999</v>
+        <v>0.36913600000000002</v>
       </c>
     </row>
   </sheetData>
@@ -3507,14 +4051,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D244153-91CD-4DE3-A3BE-886BB7506357}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2ADCB18-5B9A-4019-89E5-BA38EA9BE54A}">
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -3522,212 +4066,212 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2010</v>
       </c>
       <c r="B2">
-        <v>0.69540000000000002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.2495</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2011</v>
       </c>
       <c r="B3">
-        <v>0.69540000000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.2495</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2012</v>
       </c>
       <c r="B4">
-        <v>0.69930000000000003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.25169999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2013</v>
       </c>
       <c r="B5">
-        <v>0.69679999999999997</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.24229999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2014</v>
       </c>
       <c r="B6">
-        <v>0.69920000000000004</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.25609999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2015</v>
       </c>
       <c r="B7">
-        <v>0.69220000000000004</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.25850000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2016</v>
       </c>
       <c r="B8">
-        <v>0.6905</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.26219999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2017</v>
       </c>
       <c r="B9">
-        <v>0.68110000000000004</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.26200000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2018</v>
       </c>
       <c r="B10">
-        <v>0.67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.25009999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2019</v>
       </c>
       <c r="B11">
-        <v>0.66810000000000003</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.25119999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2020</v>
       </c>
       <c r="B12">
-        <v>0.64080000000000004</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.24579999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2021</v>
       </c>
       <c r="B13">
-        <v>0.64239999999999997</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.25340000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2022</v>
       </c>
       <c r="B14">
-        <v>0.65720000000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.27029999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2023</v>
       </c>
       <c r="B15">
-        <v>0.6482</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.26369999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2024</v>
       </c>
       <c r="B16">
-        <v>0.6482</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.26369999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2025</v>
       </c>
       <c r="B17">
-        <v>0.6482</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.26369999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2026</v>
       </c>
       <c r="B18">
-        <v>0.6482</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.26369999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2027</v>
       </c>
       <c r="B19">
-        <v>0.6482</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.26369999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2028</v>
       </c>
       <c r="B20">
-        <v>0.6482</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.26369999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2029</v>
       </c>
       <c r="B21">
-        <v>0.6482</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.26369999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2030</v>
       </c>
       <c r="B22">
-        <v>0.6482</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.26369999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2031</v>
       </c>
       <c r="B23">
-        <v>0.6482</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.26369999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2032</v>
       </c>
       <c r="B24">
-        <v>0.6482</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.26369999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2033</v>
       </c>
       <c r="B25">
-        <v>0.6482</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.26369999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2034</v>
       </c>
       <c r="B26">
-        <v>0.6482</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.26369999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2035</v>
       </c>
       <c r="B27">
-        <v>0.6482</v>
+        <v>0.26369999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/input/PL/policy parameters.xlsx
+++ b/input/PL/policy parameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10905"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10921"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Sonnewald/Documents/GitHub/SimPathsEU/input/PL/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://essexuniversity-my.sharepoint.com/personal/mv25449_essex_ac_uk/Documents/WorkCEMPA/SimPathsEU/input_PL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB22D404-E550-154F-B25C-7FDB5E4727BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{CB22D404-E550-154F-B25C-7FDB5E4727BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{521D0935-F5B3-9948-BDE7-7CE8418027F9}"/>
   <bookViews>
-    <workbookView xWindow="18980" yWindow="500" windowWidth="19420" windowHeight="19640" firstSheet="8" activeTab="11" xr2:uid="{E29F3EB7-07F0-4B2F-ABCD-03E4363B7DD7}"/>
+    <workbookView xWindow="2160" yWindow="3820" windowWidth="19420" windowHeight="19640" firstSheet="9" activeTab="12" xr2:uid="{E29F3EB7-07F0-4B2F-ABCD-03E4363B7DD7}"/>
   </bookViews>
   <sheets>
     <sheet name="disability" sheetId="10" r:id="rId1"/>
@@ -20,12 +20,12 @@
     <sheet name="students" sheetId="9" r:id="rId5"/>
     <sheet name="partnership" sheetId="4" r:id="rId6"/>
     <sheet name="employment_smales" sheetId="5" r:id="rId7"/>
-    <sheet name="employment_acmales" sheetId="11" r:id="rId8"/>
-    <sheet name="employment_sfemales" sheetId="6" r:id="rId9"/>
-    <sheet name="employment_acfemales" sheetId="12" r:id="rId10"/>
-    <sheet name="employment_malewdep" sheetId="13" r:id="rId11"/>
-    <sheet name="employment_femalewdep" sheetId="14" r:id="rId12"/>
-    <sheet name="employment_couples" sheetId="7" r:id="rId13"/>
+    <sheet name="employment_sfemales" sheetId="6" r:id="rId8"/>
+    <sheet name="employment_couples" sheetId="7" r:id="rId9"/>
+    <sheet name="employment_acfemales" sheetId="15" r:id="rId10"/>
+    <sheet name="employment_acmales" sheetId="16" r:id="rId11"/>
+    <sheet name="employment_femalewdep" sheetId="17" r:id="rId12"/>
+    <sheet name="employment_malewdep" sheetId="18" r:id="rId13"/>
     <sheet name="raw data" sheetId="3" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="44">
   <si>
     <t>CAPITAL LIMITS</t>
   </si>
@@ -178,6 +178,9 @@
   </si>
   <si>
     <t>Share</t>
+  </si>
+  <si>
+    <t>empl_share</t>
   </si>
 </sst>
 </file>
@@ -187,7 +190,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,6 +203,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -225,16 +233,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{FE05DCDB-A3D3-7345-8942-169FAA497922}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -678,133 +689,128 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7918D94-270C-AC43-A860-B12EAC793F80}">
-  <dimension ref="A1:B15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5B073A6-E977-1840-BC73-EBE2DE24A76D}">
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="8.83203125" style="3"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B1" t="s">
-        <v>35</v>
+      <c r="B1" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>2010</v>
-      </c>
-      <c r="B2">
-        <v>0.29414899999999999</v>
+      <c r="A2" s="3">
+        <v>2011</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.30703699588775635</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2011</v>
-      </c>
-      <c r="B3">
-        <v>0.29414899999999999</v>
+      <c r="A3" s="3">
+        <v>2012</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.33865079283714294</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>2012</v>
-      </c>
-      <c r="B4">
-        <v>0.27185799999999999</v>
+      <c r="A4" s="3">
+        <v>2013</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.32157674431800842</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>2013</v>
-      </c>
-      <c r="B5">
-        <v>0.24763199999999999</v>
+      <c r="A5" s="3">
+        <v>2014</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.33882203698158264</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>2014</v>
-      </c>
-      <c r="B6">
-        <v>0.22253700000000001</v>
+      <c r="A6" s="3">
+        <v>2015</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.32206058502197266</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>2015</v>
-      </c>
-      <c r="B7">
-        <v>0.22546099999999999</v>
+      <c r="A7" s="3">
+        <v>2016</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.33459004759788513</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>2016</v>
-      </c>
-      <c r="B8">
-        <v>0.24279899999999999</v>
+      <c r="A8" s="3">
+        <v>2017</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.36238300800323486</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>2017</v>
-      </c>
-      <c r="B9">
-        <v>0.24468000000000001</v>
+      <c r="A9" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.34443801641464233</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>2018</v>
-      </c>
-      <c r="B10">
-        <v>0.27390300000000001</v>
+      <c r="A10" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.35604676604270935</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>2019</v>
-      </c>
-      <c r="B11">
-        <v>0.313029</v>
+      <c r="A11" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.35161390900611877</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>2020</v>
-      </c>
-      <c r="B12">
-        <v>0.28016600000000003</v>
+      <c r="A12" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.36457997560501099</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>2021</v>
-      </c>
-      <c r="B13">
-        <v>0.27554800000000002</v>
+      <c r="A13" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.37327733635902405</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>2022</v>
-      </c>
-      <c r="B14">
-        <v>0.33879599999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="A14" s="3">
         <v>2023</v>
       </c>
-      <c r="B15">
-        <v>0.32312099999999999</v>
+      <c r="B14" s="3">
+        <v>0.36262637376785278</v>
       </c>
     </row>
   </sheetData>
@@ -813,133 +819,126 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{595D7DF5-6427-044C-BD14-A935E176F885}">
-  <dimension ref="A1:B15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47D3E0F8-B7AE-434D-A980-C4586EF714A7}">
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="8.83203125" style="3"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B1" t="s">
-        <v>35</v>
+      <c r="B1" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>2010</v>
-      </c>
-      <c r="B2">
-        <v>0.84780199999999994</v>
+      <c r="A2" s="3">
+        <v>2011</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.45325157046318054</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2011</v>
-      </c>
-      <c r="B3">
-        <v>0.84780199999999994</v>
+      <c r="A3" s="3">
+        <v>2012</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.47052028775215149</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>2012</v>
-      </c>
-      <c r="B4">
-        <v>0.80887100000000001</v>
+      <c r="A4" s="3">
+        <v>2013</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.46987497806549072</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>2013</v>
-      </c>
-      <c r="B5">
-        <v>0.77573499999999995</v>
+      <c r="A5" s="3">
+        <v>2014</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.48602882027626038</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>2014</v>
-      </c>
-      <c r="B6">
-        <v>0.75251699999999999</v>
+      <c r="A6" s="3">
+        <v>2015</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.50731164216995239</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>2015</v>
-      </c>
-      <c r="B7">
-        <v>0.75262899999999999</v>
+      <c r="A7" s="3">
+        <v>2016</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.54061275720596313</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>2016</v>
-      </c>
-      <c r="B8">
-        <v>0.75889499999999999</v>
+      <c r="A8" s="3">
+        <v>2017</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.52823173999786377</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>2017</v>
-      </c>
-      <c r="B9">
-        <v>0.79421600000000003</v>
+      <c r="A9" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.51285195350646973</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>2018</v>
-      </c>
-      <c r="B10">
-        <v>0.78493500000000005</v>
+      <c r="A10" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.51262754201889038</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>2019</v>
-      </c>
-      <c r="B11">
-        <v>0.83127399999999996</v>
+      <c r="A11" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.49603712558746338</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>2020</v>
-      </c>
-      <c r="B12">
-        <v>0.88571599999999995</v>
+      <c r="A12" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.53631812334060669</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>2021</v>
-      </c>
-      <c r="B13">
-        <v>0.84921800000000003</v>
+      <c r="A13" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.54185390472412109</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>2022</v>
-      </c>
-      <c r="B14">
-        <v>0.89088400000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="A14" s="3">
         <v>2023</v>
       </c>
-      <c r="B15">
-        <v>0.78691500000000003</v>
+      <c r="B14" s="3">
+        <v>0.53653419017791748</v>
       </c>
     </row>
   </sheetData>
@@ -948,133 +947,126 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38D88986-39F9-274F-B614-DAD5D3A57DD7}">
-  <dimension ref="A1:B15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C06BB7D7-442B-AE4C-B231-FDB180710C9D}">
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="8.83203125" style="3"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B1" t="s">
-        <v>35</v>
+      <c r="B1" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>2010</v>
-      </c>
-      <c r="B2">
-        <v>0.26522800000000002</v>
+      <c r="A2" s="3">
+        <v>2011</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.61280536651611328</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2011</v>
-      </c>
-      <c r="B3">
-        <v>0.26522800000000002</v>
+      <c r="A3" s="3">
+        <v>2012</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.60388141870498657</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>2012</v>
-      </c>
-      <c r="B4">
-        <v>0.27356799999999998</v>
+      <c r="A4" s="3">
+        <v>2013</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.61879169940948486</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>2013</v>
-      </c>
-      <c r="B5">
-        <v>0.273926</v>
+      <c r="A5" s="3">
+        <v>2014</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.5604318380355835</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>2014</v>
-      </c>
-      <c r="B6">
-        <v>0.23652200000000001</v>
+      <c r="A6" s="3">
+        <v>2015</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.55085152387619019</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>2015</v>
-      </c>
-      <c r="B7">
-        <v>0.25017800000000001</v>
+      <c r="A7" s="3">
+        <v>2016</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.60177761316299438</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>2016</v>
-      </c>
-      <c r="B8">
-        <v>0.24973799999999999</v>
+      <c r="A8" s="3">
+        <v>2017</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.60729128122329712</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>2017</v>
-      </c>
-      <c r="B9">
-        <v>0.26674399999999998</v>
+      <c r="A9" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.62395364046096802</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>2018</v>
-      </c>
-      <c r="B10">
-        <v>0.27819100000000002</v>
+      <c r="A10" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.72399652004241943</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>2019</v>
-      </c>
-      <c r="B11">
-        <v>0.29665599999999998</v>
+      <c r="A11" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.70352023839950562</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>2020</v>
-      </c>
-      <c r="B12">
-        <v>0.30199500000000001</v>
+      <c r="A12" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.72824639081954956</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>2021</v>
-      </c>
-      <c r="B13">
-        <v>0.32094800000000001</v>
+      <c r="A13" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.72857463359832764</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>2022</v>
-      </c>
-      <c r="B14">
-        <v>0.34444900000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="A14" s="3">
         <v>2023</v>
       </c>
-      <c r="B15">
-        <v>0.37901499999999999</v>
+      <c r="B14" s="3">
+        <v>0.74350965023040771</v>
       </c>
     </row>
   </sheetData>
@@ -1083,227 +1075,128 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D244153-91CD-4DE3-A3BE-886BB7506357}">
-  <dimension ref="A1:B27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{782866AD-A4B6-7C4B-AD5A-829350FBCF25}">
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="8.83203125" style="3"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B1" t="s">
-        <v>35</v>
+      <c r="B1" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>2010</v>
-      </c>
-      <c r="B2">
-        <v>0.69540000000000002</v>
+      <c r="A2" s="3">
+        <v>2011</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.83045035600662231</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2011</v>
-      </c>
-      <c r="B3">
-        <v>0.69540000000000002</v>
+      <c r="A3" s="3">
+        <v>2012</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.79526197910308838</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>2012</v>
-      </c>
-      <c r="B4">
-        <v>0.69930000000000003</v>
+      <c r="A4" s="3">
+        <v>2013</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.78863269090652466</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>2013</v>
-      </c>
-      <c r="B5">
-        <v>0.69679999999999997</v>
+      <c r="A5" s="3">
+        <v>2014</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.78763848543167114</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>2014</v>
-      </c>
-      <c r="B6">
-        <v>0.69920000000000004</v>
+      <c r="A6" s="3">
+        <v>2015</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.8190605640411377</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>2015</v>
-      </c>
-      <c r="B7">
-        <v>0.69220000000000004</v>
+      <c r="A7" s="3">
+        <v>2016</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.80837613344192505</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>2016</v>
-      </c>
-      <c r="B8">
-        <v>0.6905</v>
+      <c r="A8" s="3">
+        <v>2017</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.82042664289474487</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>2017</v>
-      </c>
-      <c r="B9">
-        <v>0.68110000000000004</v>
+      <c r="A9" s="3">
+        <v>2018</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.8661075234413147</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>2018</v>
-      </c>
-      <c r="B10">
-        <v>0.67</v>
+      <c r="A10" s="3">
+        <v>2019</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.85272645950317383</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>2019</v>
-      </c>
-      <c r="B11">
-        <v>0.66810000000000003</v>
+      <c r="A11" s="3">
+        <v>2020</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.81466501951217651</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>2020</v>
-      </c>
-      <c r="B12">
-        <v>0.64080000000000004</v>
+      <c r="A12" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.8641364574432373</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>2021</v>
-      </c>
-      <c r="B13">
-        <v>0.64239999999999997</v>
+      <c r="A13" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.88083213567733765</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>2022</v>
-      </c>
-      <c r="B14">
-        <v>0.65720000000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="A14" s="3">
         <v>2023</v>
       </c>
-      <c r="B15">
-        <v>0.6482</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>2024</v>
-      </c>
-      <c r="B16">
-        <v>0.6482</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>2025</v>
-      </c>
-      <c r="B17">
-        <v>0.6482</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>2026</v>
-      </c>
-      <c r="B18">
-        <v>0.6482</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>2027</v>
-      </c>
-      <c r="B19">
-        <v>0.6482</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>2028</v>
-      </c>
-      <c r="B20">
-        <v>0.6482</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>2029</v>
-      </c>
-      <c r="B21">
-        <v>0.6482</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>2030</v>
-      </c>
-      <c r="B22">
-        <v>0.6482</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>2031</v>
-      </c>
-      <c r="B23">
-        <v>0.6482</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>2032</v>
-      </c>
-      <c r="B24">
-        <v>0.6482</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>2033</v>
-      </c>
-      <c r="B25">
-        <v>0.6482</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>2034</v>
-      </c>
-      <c r="B26">
-        <v>0.6482</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>2035</v>
-      </c>
-      <c r="B27">
-        <v>0.6482</v>
+      <c r="B14" s="3">
+        <v>0.91838192939758301</v>
       </c>
     </row>
   </sheetData>
@@ -3916,141 +3809,6 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B959D56C-A5FB-2B4E-B586-2C478526262A}">
-  <dimension ref="A1:B15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>2010</v>
-      </c>
-      <c r="B2">
-        <v>0.349132</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2011</v>
-      </c>
-      <c r="B3">
-        <v>0.349132</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>2012</v>
-      </c>
-      <c r="B4">
-        <v>0.349132</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>2013</v>
-      </c>
-      <c r="B5">
-        <v>0.30974299999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>2014</v>
-      </c>
-      <c r="B6">
-        <v>0.25676199999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>2015</v>
-      </c>
-      <c r="B7">
-        <v>0.26411699999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>2016</v>
-      </c>
-      <c r="B8">
-        <v>0.27359499999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>2017</v>
-      </c>
-      <c r="B9">
-        <v>0.27618300000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>2018</v>
-      </c>
-      <c r="B10">
-        <v>0.30072199999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>2019</v>
-      </c>
-      <c r="B11">
-        <v>0.32430500000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>2020</v>
-      </c>
-      <c r="B12">
-        <v>0.351267</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>2021</v>
-      </c>
-      <c r="B13">
-        <v>0.26828200000000002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>2022</v>
-      </c>
-      <c r="B14">
-        <v>0.31243900000000002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>2023</v>
-      </c>
-      <c r="B15">
-        <v>0.36913600000000002</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2ADCB18-5B9A-4019-89E5-BA38EA9BE54A}">
   <dimension ref="A1:B27"/>
   <sheetViews>
@@ -4277,4 +4035,233 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D244153-91CD-4DE3-A3BE-886BB7506357}">
+  <dimension ref="A1:B27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2010</v>
+      </c>
+      <c r="B2">
+        <v>0.69540000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2011</v>
+      </c>
+      <c r="B3">
+        <v>0.69540000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2012</v>
+      </c>
+      <c r="B4">
+        <v>0.69930000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2013</v>
+      </c>
+      <c r="B5">
+        <v>0.69679999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2014</v>
+      </c>
+      <c r="B6">
+        <v>0.69920000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2015</v>
+      </c>
+      <c r="B7">
+        <v>0.69220000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2016</v>
+      </c>
+      <c r="B8">
+        <v>0.6905</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2017</v>
+      </c>
+      <c r="B9">
+        <v>0.68110000000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2018</v>
+      </c>
+      <c r="B10">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2019</v>
+      </c>
+      <c r="B11">
+        <v>0.66810000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2020</v>
+      </c>
+      <c r="B12">
+        <v>0.64080000000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2021</v>
+      </c>
+      <c r="B13">
+        <v>0.64239999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2022</v>
+      </c>
+      <c r="B14">
+        <v>0.65720000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2023</v>
+      </c>
+      <c r="B15">
+        <v>0.6482</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2024</v>
+      </c>
+      <c r="B16">
+        <v>0.6482</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2025</v>
+      </c>
+      <c r="B17">
+        <v>0.6482</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2026</v>
+      </c>
+      <c r="B18">
+        <v>0.6482</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2027</v>
+      </c>
+      <c r="B19">
+        <v>0.6482</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>2028</v>
+      </c>
+      <c r="B20">
+        <v>0.6482</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2029</v>
+      </c>
+      <c r="B21">
+        <v>0.6482</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>2030</v>
+      </c>
+      <c r="B22">
+        <v>0.6482</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>2031</v>
+      </c>
+      <c r="B23">
+        <v>0.6482</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2032</v>
+      </c>
+      <c r="B24">
+        <v>0.6482</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>2033</v>
+      </c>
+      <c r="B25">
+        <v>0.6482</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>2034</v>
+      </c>
+      <c r="B26">
+        <v>0.6482</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>2035</v>
+      </c>
+      <c r="B27">
+        <v>0.6482</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/input/PL/policy parameters.xlsx
+++ b/input/PL/policy parameters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10921"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://essexuniversity-my.sharepoint.com/personal/mv25449_essex_ac_uk/Documents/WorkCEMPA/SimPathsEU/input_PL/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pineapple/IdeaProjects/SimPathsEUmerged/input/PL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{CB22D404-E550-154F-B25C-7FDB5E4727BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{521D0935-F5B3-9948-BDE7-7CE8418027F9}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCBA0A1F-39C2-5041-B201-5BA9BC6FC05D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="3820" windowWidth="19420" windowHeight="19640" firstSheet="9" activeTab="12" xr2:uid="{E29F3EB7-07F0-4B2F-ABCD-03E4363B7DD7}"/>
+    <workbookView xWindow="23520" yWindow="500" windowWidth="25560" windowHeight="25900" firstSheet="6" activeTab="6" xr2:uid="{E29F3EB7-07F0-4B2F-ABCD-03E4363B7DD7}"/>
   </bookViews>
   <sheets>
     <sheet name="disability" sheetId="10" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="43">
   <si>
     <t>CAPITAL LIMITS</t>
   </si>
@@ -154,9 +154,6 @@
   </si>
   <si>
     <t>MINIMUM INCOME GUARANTEE PER WEEK</t>
-  </si>
-  <si>
-    <t>employed_share</t>
   </si>
   <si>
     <t>26/08/2024 (JV)</t>
@@ -565,10 +562,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
         <v>41</v>
-      </c>
-      <c r="B1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -693,7 +690,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+      <selection sqref="A1:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -702,115 +699,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>43</v>
+      <c r="B1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
+      <c r="A2">
         <v>2011</v>
       </c>
-      <c r="B2" s="3">
-        <v>0.30703699588775635</v>
+      <c r="B2">
+        <v>0.36003186935365528</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
+      <c r="A3">
         <v>2012</v>
       </c>
-      <c r="B3" s="3">
-        <v>0.33865079283714294</v>
+      <c r="B3">
+        <v>0.38692491437698423</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
+      <c r="A4">
         <v>2013</v>
       </c>
-      <c r="B4" s="3">
-        <v>0.32157674431800842</v>
+      <c r="B4">
+        <v>0.36132873647659114</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
+      <c r="A5">
         <v>2014</v>
       </c>
-      <c r="B5" s="3">
-        <v>0.33882203698158264</v>
+      <c r="B5">
+        <v>0.38088347179059528</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
+      <c r="A6">
         <v>2015</v>
       </c>
-      <c r="B6" s="3">
-        <v>0.32206058502197266</v>
+      <c r="B6">
+        <v>0.38498832940988709</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
+      <c r="A7">
         <v>2016</v>
       </c>
-      <c r="B7" s="3">
-        <v>0.33459004759788513</v>
+      <c r="B7">
+        <v>0.4058379925777626</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
+      <c r="A8">
         <v>2017</v>
       </c>
-      <c r="B8" s="3">
-        <v>0.36238300800323486</v>
+      <c r="B8">
+        <v>0.43108781433921883</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
+      <c r="A9">
         <v>2018</v>
       </c>
-      <c r="B9" s="3">
-        <v>0.34443801641464233</v>
+      <c r="B9">
+        <v>0.40755919614401981</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
+      <c r="A10">
         <v>2019</v>
       </c>
-      <c r="B10" s="3">
-        <v>0.35604676604270935</v>
+      <c r="B10">
+        <v>0.42056689824920096</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
+      <c r="A11">
         <v>2020</v>
       </c>
-      <c r="B11" s="3">
-        <v>0.35161390900611877</v>
+      <c r="B11">
+        <v>0.45737911395870984</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
+      <c r="A12">
         <v>2021</v>
       </c>
-      <c r="B12" s="3">
-        <v>0.36457997560501099</v>
+      <c r="B12">
+        <v>0.45357219704792257</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
+      <c r="A13">
         <v>2022</v>
       </c>
-      <c r="B13" s="3">
-        <v>0.37327733635902405</v>
+      <c r="B13">
+        <v>0.4353627057118411</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
+      <c r="A14">
         <v>2023</v>
       </c>
-      <c r="B14" s="3">
-        <v>0.36262637376785278</v>
+      <c r="B14">
+        <v>0.41823639194988294</v>
       </c>
     </row>
   </sheetData>
@@ -822,7 +819,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47D3E0F8-B7AE-434D-A980-C4586EF714A7}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -830,115 +829,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>43</v>
+      <c r="B1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
+      <c r="A2">
         <v>2011</v>
       </c>
-      <c r="B2" s="3">
-        <v>0.45325157046318054</v>
+      <c r="B2">
+        <v>0.51128277630011854</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
+      <c r="A3">
         <v>2012</v>
       </c>
-      <c r="B3" s="3">
-        <v>0.47052028775215149</v>
+      <c r="B3">
+        <v>0.51393263199108286</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
+      <c r="A4">
         <v>2013</v>
       </c>
-      <c r="B4" s="3">
-        <v>0.46987497806549072</v>
+      <c r="B4">
+        <v>0.5076697666645027</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
+      <c r="A5">
         <v>2014</v>
       </c>
-      <c r="B5" s="3">
-        <v>0.48602882027626038</v>
+      <c r="B5">
+        <v>0.51067476163189951</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
+      <c r="A6">
         <v>2015</v>
       </c>
-      <c r="B6" s="3">
-        <v>0.50731164216995239</v>
+      <c r="B6">
+        <v>0.53577002132648832</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
+      <c r="A7">
         <v>2016</v>
       </c>
-      <c r="B7" s="3">
-        <v>0.54061275720596313</v>
+      <c r="B7">
+        <v>0.58570650522171619</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
+      <c r="A8">
         <v>2017</v>
       </c>
-      <c r="B8" s="3">
-        <v>0.52823173999786377</v>
+      <c r="B8">
+        <v>0.59110843342391406</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
+      <c r="A9">
         <v>2018</v>
       </c>
-      <c r="B9" s="3">
-        <v>0.51285195350646973</v>
+      <c r="B9">
+        <v>0.56825257026071563</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
+      <c r="A10">
         <v>2019</v>
       </c>
-      <c r="B10" s="3">
-        <v>0.51262754201889038</v>
+      <c r="B10">
+        <v>0.57190222490428488</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
+      <c r="A11">
         <v>2020</v>
       </c>
-      <c r="B11" s="3">
-        <v>0.49603712558746338</v>
+      <c r="B11">
+        <v>0.56928754219274136</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
+      <c r="A12">
         <v>2021</v>
       </c>
-      <c r="B12" s="3">
-        <v>0.53631812334060669</v>
+      <c r="B12">
+        <v>0.61268070477504499</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
+      <c r="A13">
         <v>2022</v>
       </c>
-      <c r="B13" s="3">
-        <v>0.54185390472412109</v>
+      <c r="B13">
+        <v>0.59899189733983293</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
+      <c r="A14">
         <v>2023</v>
       </c>
-      <c r="B14" s="3">
-        <v>0.53653419017791748</v>
+      <c r="B14">
+        <v>0.59106341164084708</v>
       </c>
     </row>
   </sheetData>
@@ -950,7 +949,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C06BB7D7-442B-AE4C-B231-FDB180710C9D}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -958,115 +959,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>43</v>
+      <c r="B1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
+      <c r="A2">
         <v>2011</v>
       </c>
-      <c r="B2" s="3">
-        <v>0.61280536651611328</v>
+      <c r="B2">
+        <v>0.61680769920349121</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
+      <c r="A3">
         <v>2012</v>
       </c>
-      <c r="B3" s="3">
-        <v>0.60388141870498657</v>
+      <c r="B3">
+        <v>0.61431878805160522</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
+      <c r="A4">
         <v>2013</v>
       </c>
-      <c r="B4" s="3">
-        <v>0.61879169940948486</v>
+      <c r="B4">
+        <v>0.62226575613021851</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
+      <c r="A5">
         <v>2014</v>
       </c>
-      <c r="B5" s="3">
-        <v>0.5604318380355835</v>
+      <c r="B5">
+        <v>0.56901419162750244</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
+      <c r="A6">
         <v>2015</v>
       </c>
-      <c r="B6" s="3">
-        <v>0.55085152387619019</v>
+      <c r="B6">
+        <v>0.55749976634979248</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
+      <c r="A7">
         <v>2016</v>
       </c>
-      <c r="B7" s="3">
-        <v>0.60177761316299438</v>
+      <c r="B7">
+        <v>0.61379510164260864</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
+      <c r="A8">
         <v>2017</v>
       </c>
-      <c r="B8" s="3">
-        <v>0.60729128122329712</v>
+      <c r="B8">
+        <v>0.60692942142486572</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
+      <c r="A9">
         <v>2018</v>
       </c>
-      <c r="B9" s="3">
-        <v>0.62395364046096802</v>
+      <c r="B9">
+        <v>0.62670052051544189</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
+      <c r="A10">
         <v>2019</v>
       </c>
-      <c r="B10" s="3">
-        <v>0.72399652004241943</v>
+      <c r="B10">
+        <v>0.70763528347015381</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
+      <c r="A11">
         <v>2020</v>
       </c>
-      <c r="B11" s="3">
-        <v>0.70352023839950562</v>
+      <c r="B11">
+        <v>0.69641482830047607</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
+      <c r="A12">
         <v>2021</v>
       </c>
-      <c r="B12" s="3">
-        <v>0.72824639081954956</v>
+      <c r="B12">
+        <v>0.72090119123458862</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
+      <c r="A13">
         <v>2022</v>
       </c>
-      <c r="B13" s="3">
-        <v>0.72857463359832764</v>
+      <c r="B13">
+        <v>0.72393757104873657</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
+      <c r="A14">
         <v>2023</v>
       </c>
-      <c r="B14" s="3">
-        <v>0.74350965023040771</v>
+      <c r="B14">
+        <v>0.73154628276824951</v>
       </c>
     </row>
   </sheetData>
@@ -1078,8 +1079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{782866AD-A4B6-7C4B-AD5A-829350FBCF25}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1088,115 +1089,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>43</v>
+      <c r="B1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
+      <c r="A2">
         <v>2011</v>
       </c>
-      <c r="B2" s="3">
-        <v>0.83045035600662231</v>
+      <c r="B2">
+        <v>0.83789324760437012</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
+      <c r="A3">
         <v>2012</v>
       </c>
-      <c r="B3" s="3">
-        <v>0.79526197910308838</v>
+      <c r="B3">
+        <v>0.80550128221511841</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
+      <c r="A4">
         <v>2013</v>
       </c>
-      <c r="B4" s="3">
-        <v>0.78863269090652466</v>
+      <c r="B4">
+        <v>0.7992321252822876</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
+      <c r="A5">
         <v>2014</v>
       </c>
-      <c r="B5" s="3">
-        <v>0.78763848543167114</v>
+      <c r="B5">
+        <v>0.79625046253204346</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
+      <c r="A6">
         <v>2015</v>
       </c>
-      <c r="B6" s="3">
-        <v>0.8190605640411377</v>
+      <c r="B6">
+        <v>0.81983458995819092</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
+      <c r="A7">
         <v>2016</v>
       </c>
-      <c r="B7" s="3">
-        <v>0.80837613344192505</v>
+      <c r="B7">
+        <v>0.81091392040252686</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
+      <c r="A8">
         <v>2017</v>
       </c>
-      <c r="B8" s="3">
-        <v>0.82042664289474487</v>
+      <c r="B8">
+        <v>0.82456725835800171</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
+      <c r="A9">
         <v>2018</v>
       </c>
-      <c r="B9" s="3">
-        <v>0.8661075234413147</v>
+      <c r="B9">
+        <v>0.85373425483703613</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
+      <c r="A10">
         <v>2019</v>
       </c>
-      <c r="B10" s="3">
-        <v>0.85272645950317383</v>
+      <c r="B10">
+        <v>0.84969794750213623</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
+      <c r="A11">
         <v>2020</v>
       </c>
-      <c r="B11" s="3">
-        <v>0.81466501951217651</v>
+      <c r="B11">
+        <v>0.82026958465576172</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
+      <c r="A12">
         <v>2021</v>
       </c>
-      <c r="B12" s="3">
-        <v>0.8641364574432373</v>
+      <c r="B12">
+        <v>0.86517715454101562</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
+      <c r="A13">
         <v>2022</v>
       </c>
-      <c r="B13" s="3">
-        <v>0.88083213567733765</v>
+      <c r="B13">
+        <v>0.88653171062469482</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
+      <c r="A14">
         <v>2023</v>
       </c>
-      <c r="B14" s="3">
-        <v>0.91838192939758301</v>
+      <c r="B14">
+        <v>0.92414480447769165</v>
       </c>
     </row>
   </sheetData>
@@ -1291,10 +1292,10 @@
         <v>31</v>
       </c>
       <c r="X3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y3" t="s">
         <v>39</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
@@ -2512,7 +2513,7 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -2538,10 +2539,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" t="s">
         <v>37</v>
-      </c>
-      <c r="C9" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -2995,10 +2996,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
         <v>41</v>
-      </c>
-      <c r="B1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -3130,10 +3131,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
         <v>41</v>
-      </c>
-      <c r="B1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -3359,10 +3360,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
         <v>41</v>
-      </c>
-      <c r="B1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -3581,9 +3582,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C02B2D7-F4EC-4D40-840B-FB6BA99B9F2B}">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -3592,215 +3595,111 @@
         <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B2">
-        <v>0.46429999999999999</v>
+        <v>0.44670278305339939</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B3">
-        <v>0.46429999999999999</v>
+        <v>0.44336450393902516</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B4">
-        <v>0.4698</v>
+        <v>0.44440277662332139</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B5">
-        <v>0.4637</v>
+        <v>0.45769354631775144</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B6">
-        <v>0.46400000000000002</v>
+        <v>0.46857670454141603</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B7">
-        <v>0.46929999999999999</v>
+        <v>0.46135340171417216</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B8">
-        <v>0.48299999999999998</v>
+        <v>0.48381900646628939</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B9">
-        <v>0.49919999999999998</v>
+        <v>0.4911795212142166</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B10">
-        <v>0.49619999999999997</v>
+        <v>0.48726882873224336</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B11">
-        <v>0.49309999999999998</v>
+        <v>0.49614597341437744</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B12">
-        <v>0.49930000000000002</v>
+        <v>0.52459623426267399</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B13">
-        <v>0.51619999999999999</v>
+        <v>0.53915577006649817</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B14">
-        <v>0.52280000000000004</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>2023</v>
-      </c>
-      <c r="B15">
-        <v>0.50560000000000005</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>2024</v>
-      </c>
-      <c r="B16">
-        <v>0.50560000000000005</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>2025</v>
-      </c>
-      <c r="B17">
-        <v>0.50560000000000005</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>2026</v>
-      </c>
-      <c r="B18">
-        <v>0.50560000000000005</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>2027</v>
-      </c>
-      <c r="B19">
-        <v>0.50560000000000005</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>2028</v>
-      </c>
-      <c r="B20">
-        <v>0.50560000000000005</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>2029</v>
-      </c>
-      <c r="B21">
-        <v>0.50560000000000005</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>2030</v>
-      </c>
-      <c r="B22">
-        <v>0.50560000000000005</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>2031</v>
-      </c>
-      <c r="B23">
-        <v>0.50560000000000005</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>2032</v>
-      </c>
-      <c r="B24">
-        <v>0.50560000000000005</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>2033</v>
-      </c>
-      <c r="B25">
-        <v>0.50560000000000005</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>2034</v>
-      </c>
-      <c r="B26">
-        <v>0.50560000000000005</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>2035</v>
-      </c>
-      <c r="B27">
-        <v>0.50560000000000005</v>
+        <v>0.52156811285163618</v>
       </c>
     </row>
   </sheetData>
@@ -3810,9 +3709,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2ADCB18-5B9A-4019-89E5-BA38EA9BE54A}">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -3821,215 +3722,111 @@
         <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B2">
-        <v>0.2495</v>
+        <v>0.31394928614821893</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B3">
-        <v>0.2495</v>
+        <v>0.30848042060514502</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B4">
-        <v>0.25169999999999998</v>
+        <v>0.30956841493744147</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B5">
-        <v>0.24229999999999999</v>
+        <v>0.31944256894108353</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B6">
-        <v>0.25609999999999999</v>
+        <v>0.31710955870099683</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B7">
-        <v>0.25850000000000001</v>
+        <v>0.31537141978390892</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B8">
-        <v>0.26219999999999999</v>
+        <v>0.31503917525773195</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B9">
-        <v>0.26200000000000001</v>
+        <v>0.31132235685019893</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B10">
-        <v>0.25009999999999999</v>
+        <v>0.3186277678079098</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B11">
-        <v>0.25119999999999998</v>
+        <v>0.31556614940666167</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B12">
-        <v>0.24579999999999999</v>
+        <v>0.32083228970536581</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B13">
-        <v>0.25340000000000001</v>
+        <v>0.34580404255112251</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B14">
-        <v>0.27029999999999998</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>2023</v>
-      </c>
-      <c r="B15">
-        <v>0.26369999999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>2024</v>
-      </c>
-      <c r="B16">
-        <v>0.26369999999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>2025</v>
-      </c>
-      <c r="B17">
-        <v>0.26369999999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>2026</v>
-      </c>
-      <c r="B18">
-        <v>0.26369999999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>2027</v>
-      </c>
-      <c r="B19">
-        <v>0.26369999999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>2028</v>
-      </c>
-      <c r="B20">
-        <v>0.26369999999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>2029</v>
-      </c>
-      <c r="B21">
-        <v>0.26369999999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>2030</v>
-      </c>
-      <c r="B22">
-        <v>0.26369999999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>2031</v>
-      </c>
-      <c r="B23">
-        <v>0.26369999999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>2032</v>
-      </c>
-      <c r="B24">
-        <v>0.26369999999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>2033</v>
-      </c>
-      <c r="B25">
-        <v>0.26369999999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>2034</v>
-      </c>
-      <c r="B26">
-        <v>0.26369999999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>2035</v>
-      </c>
-      <c r="B27">
-        <v>0.26369999999999999</v>
+        <v>0.34735164074624669</v>
       </c>
     </row>
   </sheetData>
@@ -4039,9 +3836,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D244153-91CD-4DE3-A3BE-886BB7506357}">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -4050,215 +3849,111 @@
         <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B2">
-        <v>0.69540000000000002</v>
+        <v>0.97541612386703491</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B3">
-        <v>0.69540000000000002</v>
+        <v>0.97455012798309326</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B4">
-        <v>0.69930000000000003</v>
+        <v>0.96620428562164307</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B5">
-        <v>0.69679999999999997</v>
+        <v>0.97489017248153687</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B6">
-        <v>0.69920000000000004</v>
+        <v>0.9752197265625</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B7">
-        <v>0.69220000000000004</v>
+        <v>0.98048520088195801</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B8">
-        <v>0.6905</v>
+        <v>0.97633326053619385</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B9">
-        <v>0.68110000000000004</v>
+        <v>0.98472893238067627</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B10">
-        <v>0.67</v>
+        <v>0.98302763700485229</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B11">
-        <v>0.66810000000000003</v>
+        <v>0.98899710178375244</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B12">
-        <v>0.64080000000000004</v>
+        <v>0.99124062061309814</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B13">
-        <v>0.64239999999999997</v>
+        <v>0.9915042519569397</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B14">
-        <v>0.65720000000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>2023</v>
-      </c>
-      <c r="B15">
-        <v>0.6482</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>2024</v>
-      </c>
-      <c r="B16">
-        <v>0.6482</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>2025</v>
-      </c>
-      <c r="B17">
-        <v>0.6482</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>2026</v>
-      </c>
-      <c r="B18">
-        <v>0.6482</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>2027</v>
-      </c>
-      <c r="B19">
-        <v>0.6482</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>2028</v>
-      </c>
-      <c r="B20">
-        <v>0.6482</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>2029</v>
-      </c>
-      <c r="B21">
-        <v>0.6482</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>2030</v>
-      </c>
-      <c r="B22">
-        <v>0.6482</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>2031</v>
-      </c>
-      <c r="B23">
-        <v>0.6482</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>2032</v>
-      </c>
-      <c r="B24">
-        <v>0.6482</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>2033</v>
-      </c>
-      <c r="B25">
-        <v>0.6482</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>2034</v>
-      </c>
-      <c r="B26">
-        <v>0.6482</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>2035</v>
-      </c>
-      <c r="B27">
-        <v>0.6482</v>
+        <v>0.99202412366867065</v>
       </c>
     </row>
   </sheetData>

--- a/input/PL/policy parameters.xlsx
+++ b/input/PL/policy parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pineapple/IdeaProjects/SimPathsEUmerged/input/PL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCBA0A1F-39C2-5041-B201-5BA9BC6FC05D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCBE2FD0-18E0-9341-A850-6D5B10C9221B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23520" yWindow="500" windowWidth="25560" windowHeight="25900" firstSheet="6" activeTab="6" xr2:uid="{E29F3EB7-07F0-4B2F-ABCD-03E4363B7DD7}"/>
+    <workbookView xWindow="20100" yWindow="500" windowWidth="28980" windowHeight="27600" firstSheet="5" activeTab="10" xr2:uid="{E29F3EB7-07F0-4B2F-ABCD-03E4363B7DD7}"/>
   </bookViews>
   <sheets>
     <sheet name="disability" sheetId="10" r:id="rId1"/>
@@ -711,7 +711,7 @@
         <v>2011</v>
       </c>
       <c r="B2">
-        <v>0.36003186935365528</v>
+        <v>0.38052187841351931</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -719,7 +719,7 @@
         <v>2012</v>
       </c>
       <c r="B3">
-        <v>0.38692491437698423</v>
+        <v>0.39494946229994121</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -727,7 +727,7 @@
         <v>2013</v>
       </c>
       <c r="B4">
-        <v>0.36132873647659114</v>
+        <v>0.3708155540743337</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -735,7 +735,7 @@
         <v>2014</v>
       </c>
       <c r="B5">
-        <v>0.38088347179059528</v>
+        <v>0.39400614231074099</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -743,7 +743,7 @@
         <v>2015</v>
       </c>
       <c r="B6">
-        <v>0.38498832940988709</v>
+        <v>0.39038070193201418</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -751,7 +751,7 @@
         <v>2016</v>
       </c>
       <c r="B7">
-        <v>0.4058379925777626</v>
+        <v>0.4045626857325601</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -759,7 +759,7 @@
         <v>2017</v>
       </c>
       <c r="B8">
-        <v>0.43108781433921883</v>
+        <v>0.43452589116520407</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -767,7 +767,7 @@
         <v>2018</v>
       </c>
       <c r="B9">
-        <v>0.40755919614401981</v>
+        <v>0.41769307045724119</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -775,7 +775,7 @@
         <v>2019</v>
       </c>
       <c r="B10">
-        <v>0.42056689824920096</v>
+        <v>0.42367705016359092</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -783,7 +783,7 @@
         <v>2020</v>
       </c>
       <c r="B11">
-        <v>0.45737911395870984</v>
+        <v>0.45367977278524363</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -791,7 +791,7 @@
         <v>2021</v>
       </c>
       <c r="B12">
-        <v>0.45357219704792257</v>
+        <v>0.44799750636445951</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -799,7 +799,7 @@
         <v>2022</v>
       </c>
       <c r="B13">
-        <v>0.4353627057118411</v>
+        <v>0.43338321233616106</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -807,7 +807,7 @@
         <v>2023</v>
       </c>
       <c r="B14">
-        <v>0.41823639194988294</v>
+        <v>0.43184882342437486</v>
       </c>
     </row>
   </sheetData>
@@ -819,7 +819,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47D3E0F8-B7AE-434D-A980-C4586EF714A7}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:B14"/>
     </sheetView>
   </sheetViews>
@@ -841,7 +841,7 @@
         <v>2011</v>
       </c>
       <c r="B2">
-        <v>0.51128277630011854</v>
+        <v>0.51193623756613316</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -849,7 +849,7 @@
         <v>2012</v>
       </c>
       <c r="B3">
-        <v>0.51393263199108286</v>
+        <v>0.51388796407993187</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -857,7 +857,7 @@
         <v>2013</v>
       </c>
       <c r="B4">
-        <v>0.5076697666645027</v>
+        <v>0.50731054213776516</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -865,7 +865,7 @@
         <v>2014</v>
       </c>
       <c r="B5">
-        <v>0.51067476163189951</v>
+        <v>0.51131531460632029</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -873,7 +873,7 @@
         <v>2015</v>
       </c>
       <c r="B6">
-        <v>0.53577002132648832</v>
+        <v>0.53318545452592403</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -881,7 +881,7 @@
         <v>2016</v>
       </c>
       <c r="B7">
-        <v>0.58570650522171619</v>
+        <v>0.58285048457054911</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -889,7 +889,7 @@
         <v>2017</v>
       </c>
       <c r="B8">
-        <v>0.59110843342391406</v>
+        <v>0.59181134292156978</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -897,7 +897,7 @@
         <v>2018</v>
       </c>
       <c r="B9">
-        <v>0.56825257026071563</v>
+        <v>0.56828787809135639</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -905,7 +905,7 @@
         <v>2019</v>
       </c>
       <c r="B10">
-        <v>0.57190222490428488</v>
+        <v>0.57210350926861453</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -913,7 +913,7 @@
         <v>2020</v>
       </c>
       <c r="B11">
-        <v>0.56928754219274136</v>
+        <v>0.56859266378921847</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -921,7 +921,7 @@
         <v>2021</v>
       </c>
       <c r="B12">
-        <v>0.61268070477504499</v>
+        <v>0.61407456424300411</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -929,7 +929,7 @@
         <v>2022</v>
       </c>
       <c r="B13">
-        <v>0.59899189733983293</v>
+        <v>0.60188645030954646</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -937,7 +937,7 @@
         <v>2023</v>
       </c>
       <c r="B14">
-        <v>0.59106341164084708</v>
+        <v>0.59164974063354814</v>
       </c>
     </row>
   </sheetData>
@@ -971,7 +971,7 @@
         <v>2011</v>
       </c>
       <c r="B2">
-        <v>0.61680769920349121</v>
+        <v>0.30785190812656721</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -979,7 +979,7 @@
         <v>2012</v>
       </c>
       <c r="B3">
-        <v>0.61431878805160522</v>
+        <v>0.30811218783286087</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -987,7 +987,7 @@
         <v>2013</v>
       </c>
       <c r="B4">
-        <v>0.62226575613021851</v>
+        <v>0.31195865499437081</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -995,7 +995,7 @@
         <v>2014</v>
       </c>
       <c r="B5">
-        <v>0.56901419162750244</v>
+        <v>0.28581726919907879</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -1003,7 +1003,7 @@
         <v>2015</v>
       </c>
       <c r="B6">
-        <v>0.55749976634979248</v>
+        <v>0.27963714773111775</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -1011,7 +1011,7 @@
         <v>2016</v>
       </c>
       <c r="B7">
-        <v>0.61379510164260864</v>
+        <v>0.30752858106411018</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -1019,7 +1019,7 @@
         <v>2017</v>
       </c>
       <c r="B8">
-        <v>0.60692942142486572</v>
+        <v>0.30346469681990601</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -1027,7 +1027,7 @@
         <v>2018</v>
       </c>
       <c r="B9">
-        <v>0.62670052051544189</v>
+        <v>0.31364752176359245</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -1035,7 +1035,7 @@
         <v>2019</v>
       </c>
       <c r="B10">
-        <v>0.70763528347015381</v>
+        <v>0.35381764642659308</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -1043,7 +1043,7 @@
         <v>2020</v>
       </c>
       <c r="B11">
-        <v>0.69641482830047607</v>
+        <v>0.34820741422940238</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -1051,7 +1051,7 @@
         <v>2021</v>
       </c>
       <c r="B12">
-        <v>0.72090119123458862</v>
+        <v>0.3607173104243539</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -1059,7 +1059,7 @@
         <v>2022</v>
       </c>
       <c r="B13">
-        <v>0.72393757104873657</v>
+        <v>0.36274965739361886</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -1067,7 +1067,7 @@
         <v>2023</v>
       </c>
       <c r="B14">
-        <v>0.73154628276824951</v>
+        <v>0.36845418733118185</v>
       </c>
     </row>
   </sheetData>
@@ -1101,7 +1101,7 @@
         <v>2011</v>
       </c>
       <c r="B2">
-        <v>0.83789324760437012</v>
+        <v>0.41894661081369583</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -1109,7 +1109,7 @@
         <v>2012</v>
       </c>
       <c r="B3">
-        <v>0.80550128221511841</v>
+        <v>0.40321361657827082</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1117,7 +1117,7 @@
         <v>2013</v>
       </c>
       <c r="B4">
-        <v>0.7992321252822876</v>
+        <v>0.39961607117918457</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -1125,7 +1125,7 @@
         <v>2014</v>
       </c>
       <c r="B5">
-        <v>0.79625046253204346</v>
+        <v>0.39812522211769624</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -1133,7 +1133,7 @@
         <v>2015</v>
       </c>
       <c r="B6">
-        <v>0.81983458995819092</v>
+        <v>0.40991729842040864</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -1141,7 +1141,7 @@
         <v>2016</v>
       </c>
       <c r="B7">
-        <v>0.81091392040252686</v>
+        <v>0.40545695127308695</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -1149,7 +1149,7 @@
         <v>2017</v>
       </c>
       <c r="B8">
-        <v>0.82456725835800171</v>
+        <v>0.41228362735812552</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -1157,7 +1157,7 @@
         <v>2018</v>
       </c>
       <c r="B9">
-        <v>0.85373425483703613</v>
+        <v>0.42686713226978734</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -1165,7 +1165,7 @@
         <v>2019</v>
       </c>
       <c r="B10">
-        <v>0.84969794750213623</v>
+        <v>0.42517186848982991</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -1173,7 +1173,7 @@
         <v>2020</v>
       </c>
       <c r="B11">
-        <v>0.82026958465576172</v>
+        <v>0.41013480515252171</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -1181,7 +1181,7 @@
         <v>2021</v>
       </c>
       <c r="B12">
-        <v>0.86517715454101562</v>
+        <v>0.43258856779953725</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -1189,7 +1189,7 @@
         <v>2022</v>
       </c>
       <c r="B13">
-        <v>0.88653171062469482</v>
+        <v>0.44326586886465918</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -1197,7 +1197,7 @@
         <v>2023</v>
       </c>
       <c r="B14">
-        <v>0.92414480447769165</v>
+        <v>0.46207239052048033</v>
       </c>
     </row>
   </sheetData>
@@ -3584,7 +3584,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C02B2D7-F4EC-4D40-840B-FB6BA99B9F2B}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B14"/>
     </sheetView>
   </sheetViews>
@@ -3603,7 +3603,7 @@
         <v>2011</v>
       </c>
       <c r="B2">
-        <v>0.44670278305339939</v>
+        <v>0.44580390908196338</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -3611,7 +3611,7 @@
         <v>2012</v>
       </c>
       <c r="B3">
-        <v>0.44336450393902516</v>
+        <v>0.44324938187318652</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -3619,7 +3619,7 @@
         <v>2013</v>
       </c>
       <c r="B4">
-        <v>0.44440277662332139</v>
+        <v>0.44437298985301549</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -3627,7 +3627,7 @@
         <v>2014</v>
       </c>
       <c r="B5">
-        <v>0.45769354631775144</v>
+        <v>0.45665144279125908</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -3635,7 +3635,7 @@
         <v>2015</v>
       </c>
       <c r="B6">
-        <v>0.46857670454141603</v>
+        <v>0.47060122836212664</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -3643,7 +3643,7 @@
         <v>2016</v>
       </c>
       <c r="B7">
-        <v>0.46135340171417216</v>
+        <v>0.46283571902209464</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -3651,7 +3651,7 @@
         <v>2017</v>
       </c>
       <c r="B8">
-        <v>0.48381900646628939</v>
+        <v>0.4829455027595948</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -3659,7 +3659,7 @@
         <v>2018</v>
       </c>
       <c r="B9">
-        <v>0.4911795212142166</v>
+        <v>0.49083580436737168</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -3667,7 +3667,7 @@
         <v>2019</v>
       </c>
       <c r="B10">
-        <v>0.48726882873224336</v>
+        <v>0.48680351073667416</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -3675,7 +3675,7 @@
         <v>2020</v>
       </c>
       <c r="B11">
-        <v>0.49614597341437744</v>
+        <v>0.49651737484706926</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -3683,7 +3683,7 @@
         <v>2021</v>
       </c>
       <c r="B12">
-        <v>0.52459623426267399</v>
+        <v>0.52320974701450895</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -3691,7 +3691,7 @@
         <v>2022</v>
       </c>
       <c r="B13">
-        <v>0.53915577006649817</v>
+        <v>0.53678039526990218</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -3699,7 +3699,7 @@
         <v>2023</v>
       </c>
       <c r="B14">
-        <v>0.52156811285163618</v>
+        <v>0.52108578146447826</v>
       </c>
     </row>
   </sheetData>
@@ -3730,7 +3730,7 @@
         <v>2011</v>
       </c>
       <c r="B2">
-        <v>0.31394928614821893</v>
+        <v>0.30208181732795336</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -3738,7 +3738,7 @@
         <v>2012</v>
       </c>
       <c r="B3">
-        <v>0.30848042060514502</v>
+        <v>0.30061108532233771</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -3746,7 +3746,7 @@
         <v>2013</v>
       </c>
       <c r="B4">
-        <v>0.30956841493744147</v>
+        <v>0.30276407721188736</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -3754,7 +3754,7 @@
         <v>2014</v>
       </c>
       <c r="B5">
-        <v>0.31944256894108353</v>
+        <v>0.31145040929785739</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -3762,7 +3762,7 @@
         <v>2015</v>
       </c>
       <c r="B6">
-        <v>0.31710955870099683</v>
+        <v>0.31244190895581908</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -3770,7 +3770,7 @@
         <v>2016</v>
       </c>
       <c r="B7">
-        <v>0.31537141978390892</v>
+        <v>0.31288817157553944</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -3778,7 +3778,7 @@
         <v>2017</v>
       </c>
       <c r="B8">
-        <v>0.31503917525773195</v>
+        <v>0.30967743686400945</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -3786,7 +3786,7 @@
         <v>2018</v>
       </c>
       <c r="B9">
-        <v>0.31132235685019893</v>
+        <v>0.3052372997493929</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -3794,7 +3794,7 @@
         <v>2019</v>
       </c>
       <c r="B10">
-        <v>0.3186277678079098</v>
+        <v>0.31519769527800484</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -3802,7 +3802,7 @@
         <v>2020</v>
       </c>
       <c r="B11">
-        <v>0.31556614940666167</v>
+        <v>0.31410432759222856</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -3810,7 +3810,7 @@
         <v>2021</v>
       </c>
       <c r="B12">
-        <v>0.32083228970536581</v>
+        <v>0.319650585035544</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -3818,7 +3818,7 @@
         <v>2022</v>
       </c>
       <c r="B13">
-        <v>0.34580404255112251</v>
+        <v>0.34466439690323852</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -3826,7 +3826,7 @@
         <v>2023</v>
       </c>
       <c r="B14">
-        <v>0.34735164074624669</v>
+        <v>0.34069381864858117</v>
       </c>
     </row>
   </sheetData>
@@ -3857,7 +3857,7 @@
         <v>2011</v>
       </c>
       <c r="B2">
-        <v>0.97541612386703491</v>
+        <v>0.82383029192035362</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -3865,7 +3865,7 @@
         <v>2012</v>
       </c>
       <c r="B3">
-        <v>0.97455012798309326</v>
+        <v>0.821731322462114</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -3873,7 +3873,7 @@
         <v>2013</v>
       </c>
       <c r="B4">
-        <v>0.96620428562164307</v>
+        <v>0.81609950788251906</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -3881,7 +3881,7 @@
         <v>2014</v>
       </c>
       <c r="B5">
-        <v>0.97489017248153687</v>
+        <v>0.83106676793864132</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -3889,7 +3889,7 @@
         <v>2015</v>
       </c>
       <c r="B6">
-        <v>0.9752197265625</v>
+        <v>0.83335242550016386</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -3897,7 +3897,7 @@
         <v>2016</v>
       </c>
       <c r="B7">
-        <v>0.98048520088195801</v>
+        <v>0.83973543797809402</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -3905,7 +3905,7 @@
         <v>2017</v>
       </c>
       <c r="B8">
-        <v>0.97633326053619385</v>
+        <v>0.84157973500650807</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -3913,7 +3913,7 @@
         <v>2018</v>
       </c>
       <c r="B9">
-        <v>0.98472893238067627</v>
+        <v>0.84545298666168944</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -3921,7 +3921,7 @@
         <v>2019</v>
       </c>
       <c r="B10">
-        <v>0.98302763700485229</v>
+        <v>0.8534134938695962</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -3929,7 +3929,7 @@
         <v>2020</v>
       </c>
       <c r="B11">
-        <v>0.98899710178375244</v>
+        <v>0.86500591632281076</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -3937,7 +3937,7 @@
         <v>2021</v>
       </c>
       <c r="B12">
-        <v>0.99124062061309814</v>
+        <v>0.88091732038400394</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -3945,7 +3945,7 @@
         <v>2022</v>
       </c>
       <c r="B13">
-        <v>0.9915042519569397</v>
+        <v>0.87862197711765877</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -3953,7 +3953,7 @@
         <v>2023</v>
       </c>
       <c r="B14">
-        <v>0.99202412366867065</v>
+        <v>0.89231035103286582</v>
       </c>
     </row>
   </sheetData>
